--- a/models/workList/sheets/sheet.xlsx
+++ b/models/workList/sheets/sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学资料 总\2017网维管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC-Zhong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t xml:space="preserve">周一 </t>
   </si>
@@ -68,77 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周俊盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文晓新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡培焕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦梓豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林泽坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高培进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈明哲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈俊文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈彦彬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王拓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李沅霖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘伯奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫思特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林嘉洛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何玉婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林慧琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑锦琪</t>
-  </si>
-  <si>
-    <t>卢传健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http：//www.zsxyww.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄雯婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈坚荣-18928187485</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,46 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王子民-18928187474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭嘉慧-18928187479</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程楚婷芮-18928187456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佘佳殷-18928187473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙子森-18928187476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李楚鹏-18928187472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢泓宇-18928180137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨光-18928187465</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭绍铭-18928187475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周名海-18928187478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱宇超-18928187463</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,22 +101,6 @@
   </si>
   <si>
     <t>周日值班组长:       朱宇超--18928187463</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二值班组长:      刘　越--18928187455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三值班组长:      麦晓达--18928187450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四值班组长：     陈坚荣--18928187485</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五值班组长：     周文娣--18928187460</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一值班组长:      黄致杰--18928187469</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周六值班组长：     吴李根--18928187466</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,71 +117,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黄致杰-18928187469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林慧琳</t>
+  </si>
+  <si>
+    <t>王子民</t>
+  </si>
+  <si>
+    <t>何玉婷</t>
+  </si>
+  <si>
+    <t>秦梓豪</t>
+  </si>
+  <si>
+    <t>钟健聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉慧</t>
+  </si>
+  <si>
+    <t>程楚婷芮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄雯婷</t>
+  </si>
+  <si>
+    <t>郑锦琪</t>
+  </si>
+  <si>
+    <t>姜贺</t>
+  </si>
+  <si>
+    <t>沙子森</t>
+  </si>
+  <si>
+    <t>陈昊</t>
+  </si>
+  <si>
+    <t>马珊珊</t>
+  </si>
+  <si>
+    <t>高培进</t>
+  </si>
+  <si>
+    <t>佘佳殷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚宏成</t>
+  </si>
+  <si>
+    <t>谭孟和</t>
+  </si>
+  <si>
+    <t>叶秀衍</t>
+  </si>
+  <si>
+    <t>陈彦彬</t>
+  </si>
+  <si>
+    <t>陈天昊</t>
+  </si>
+  <si>
+    <t>王拓</t>
+  </si>
+  <si>
+    <t>欧展恒</t>
+  </si>
+  <si>
+    <t>巫文忠</t>
+  </si>
+  <si>
+    <t>吴冰</t>
+  </si>
+  <si>
+    <t>吴诗泳</t>
+  </si>
+  <si>
+    <t>邓胤炚</t>
+  </si>
+  <si>
+    <t>李月养</t>
+  </si>
+  <si>
+    <t>姜楚怡</t>
+  </si>
+  <si>
+    <t>林丽娟</t>
+  </si>
+  <si>
+    <t>袁莹君</t>
+  </si>
+  <si>
+    <t>余婉瑶</t>
+  </si>
+  <si>
+    <t>白云帆</t>
+  </si>
+  <si>
+    <t>范育铭</t>
+  </si>
+  <si>
+    <t>陈嘉文</t>
+  </si>
+  <si>
+    <t>李嘉明</t>
+  </si>
+  <si>
+    <t>李智贤</t>
+  </si>
+  <si>
+    <t>梁焯辉</t>
+  </si>
+  <si>
+    <t>姚远成</t>
+  </si>
+  <si>
+    <t>李品锐</t>
+  </si>
+  <si>
+    <t>丘福灵</t>
+  </si>
+  <si>
+    <t>吴治熠</t>
+  </si>
+  <si>
+    <t>陈卓钒</t>
+  </si>
+  <si>
+    <t>刘宇樑</t>
+  </si>
+  <si>
+    <t>骆俊良</t>
+  </si>
+  <si>
+    <t>徐玉峰</t>
+  </si>
+  <si>
+    <t>余海坤</t>
+  </si>
+  <si>
+    <t>李宇超</t>
+  </si>
+  <si>
+    <t>梁浩民</t>
+  </si>
+  <si>
+    <t>彭一洪</t>
+  </si>
+  <si>
+    <t>王梓豪</t>
+  </si>
+  <si>
+    <t>杨荣辉</t>
+  </si>
+  <si>
+    <t>周锦鹏</t>
+  </si>
+  <si>
+    <t>陈洪滨</t>
+  </si>
+  <si>
+    <t>李成朋</t>
+  </si>
+  <si>
+    <t>曾津森</t>
+  </si>
+  <si>
+    <t>邓贵东</t>
+  </si>
+  <si>
+    <t>李嘉怿</t>
+  </si>
+  <si>
+    <t>刘芫涌</t>
+  </si>
+  <si>
+    <t>马程宏</t>
+  </si>
+  <si>
+    <t>田坤</t>
+  </si>
+  <si>
+    <t>吴权章</t>
+  </si>
+  <si>
+    <t>严浩斌</t>
+  </si>
+  <si>
+    <t>何韦旻</t>
+  </si>
+  <si>
+    <t>黄阳</t>
+  </si>
+  <si>
+    <t>黄彦淳</t>
+  </si>
+  <si>
+    <t>方智城</t>
+  </si>
+  <si>
+    <t>陈景成</t>
+  </si>
+  <si>
+    <t>钟烨鹏</t>
+  </si>
+  <si>
+    <t>黄家冲</t>
+  </si>
+  <si>
+    <t>李程超</t>
+  </si>
+  <si>
+    <t>李毅</t>
+  </si>
+  <si>
+    <t>王嘉豪</t>
+  </si>
+  <si>
+    <t>秦雨</t>
+  </si>
+  <si>
+    <t>徐浩俊</t>
+  </si>
+  <si>
+    <t>姚智豪</t>
+  </si>
+  <si>
+    <t>朱万鑫</t>
+  </si>
+  <si>
+    <t>何乾兴</t>
+  </si>
+  <si>
+    <t>郑钦桉</t>
+  </si>
+  <si>
+    <t>左洪全</t>
+  </si>
+  <si>
+    <t>高思诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓镇林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘浩源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹景坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘伯奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林泽坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡培焕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄一宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>陈健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叶秀衍-18928187482</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐浩哲-18928187464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贵昉-18928187453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王帝-18928187484</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘浩源-18928187481</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟健聪-18928187454</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马珊珊-18928187470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜贺-18928187458</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄一宁-18928187477</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭骏杰-18928187457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高文森-18928187451</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓镇林-18928187467</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈天昊-18928187462</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹景坤-18928187452</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戚宏成-18928187480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭孟和</t>
+    <t>郭绍铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贵昉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐浩哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李楚鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林嘉洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周名海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢传健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,210 +437,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余婉瑶</t>
-  </si>
-  <si>
-    <t>袁莹君</t>
-  </si>
-  <si>
-    <t>白云帆</t>
-  </si>
-  <si>
-    <t>吴治熠</t>
-  </si>
-  <si>
-    <t>陈昊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林丽娟</t>
-  </si>
-  <si>
-    <t>范育铭</t>
-  </si>
-  <si>
-    <t>姚远成</t>
-  </si>
-  <si>
-    <t>李嘉明</t>
-  </si>
-  <si>
-    <t>李品锐</t>
-  </si>
-  <si>
-    <t>吴诗泳</t>
-  </si>
-  <si>
-    <t>李月养</t>
-  </si>
-  <si>
-    <t>李成朋</t>
-  </si>
-  <si>
-    <t>邓贵东</t>
-  </si>
-  <si>
-    <t>吴权章</t>
-  </si>
-  <si>
-    <t>黄彦淳</t>
-  </si>
-  <si>
-    <t>李嘉怿</t>
-  </si>
-  <si>
-    <t>梁浩民</t>
-  </si>
-  <si>
-    <t>周锦鹏</t>
-  </si>
-  <si>
-    <t>曾津森</t>
-  </si>
-  <si>
-    <t>陈卓钒</t>
-  </si>
-  <si>
-    <t>黄家冲</t>
-  </si>
-  <si>
-    <t>梁焯辉</t>
-  </si>
-  <si>
-    <t>陈嘉文</t>
-  </si>
-  <si>
-    <t>朱万鑫</t>
+    <t>林城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫思特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文晓新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高文森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢泓宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈俊文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李沅霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周俊盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一值班组长:      周文娣-18928187460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二值班组长:      麦晓达-18928187450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三值班组长:      黄致杰-18928187469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四值班组长：     刘越-18928187455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五值班组长：     陈坚荣-18928187485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭骏杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄致杰</t>
+  </si>
+  <si>
+    <t>吴李根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郭智成</t>
   </si>
   <si>
-    <t>何乾兴</t>
-  </si>
-  <si>
-    <t>李毅</t>
-  </si>
-  <si>
-    <t>李宇超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆俊良</t>
-  </si>
-  <si>
-    <t>王梓豪</t>
-  </si>
-  <si>
-    <t>徐玉峰</t>
-  </si>
-  <si>
-    <t>姚智豪</t>
-  </si>
-  <si>
     <t>辛泽鑫</t>
-  </si>
-  <si>
-    <t>徐爱华</t>
-  </si>
-  <si>
-    <t>杨荣辉</t>
-  </si>
-  <si>
-    <t>刘芫涌</t>
-  </si>
-  <si>
-    <t>左洪全</t>
-  </si>
-  <si>
-    <t>田坤</t>
-  </si>
-  <si>
-    <t>王嘉豪</t>
-  </si>
-  <si>
-    <t>李程超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧展恒</t>
-  </si>
-  <si>
-    <t>巫文忠</t>
-  </si>
-  <si>
-    <t>陈洪滨</t>
-  </si>
-  <si>
-    <t>姜楚怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严浩斌</t>
-  </si>
-  <si>
-    <t>李智贤</t>
-  </si>
-  <si>
-    <t>马程宏</t>
-  </si>
-  <si>
-    <t>刘宇樑</t>
-  </si>
-  <si>
-    <t>丘福灵</t>
-  </si>
-  <si>
-    <t>邓胤炚</t>
-  </si>
-  <si>
-    <t>方智城</t>
-  </si>
-  <si>
-    <t>秦雨</t>
-  </si>
-  <si>
-    <t>黄阳</t>
-  </si>
-  <si>
-    <t>余海坤</t>
-  </si>
-  <si>
-    <t>彭一洪</t>
-  </si>
-  <si>
-    <t>郑钦桉</t>
-  </si>
-  <si>
-    <t>何韦旻</t>
-  </si>
-  <si>
-    <t>钟烨鹏</t>
-  </si>
-  <si>
-    <t>陈景成</t>
-  </si>
-  <si>
-    <t>黄致杰-18928187469</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈清伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐浩俊</t>
-  </si>
-  <si>
-    <t>高思诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,8 +564,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -661,9 +650,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -982,10 +971,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -993,7 +984,7 @@
     <col min="1" max="1" width="27.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.77734375" style="3" customWidth="1"/>
     <col min="3" max="4" width="37.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" style="12" customWidth="1"/>
     <col min="6" max="8" width="37.88671875" style="3" customWidth="1"/>
     <col min="9" max="256" width="9" style="3"/>
     <col min="257" max="257" width="22.33203125" style="3" customWidth="1"/>
@@ -1404,70 +1395,74 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1494,50 +1489,50 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>62</v>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1545,9 +1540,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1577,74 +1570,60 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1671,47 +1650,49 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>108</v>
+      <c r="B18" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1749,185 +1730,191 @@
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>141</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>116</v>
+      <c r="G25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6" t="s">
-        <v>118</v>
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1943,139 +1930,136 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>48</v>
+      <c r="B32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="D37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="16">
         <v>88332760</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="16" t="s">
-        <v>33</v>
+      <c r="D38" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="D42" s="15"/>
+      <c r="D41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
